--- a/biology/Botanique/Craterelle/Craterelle.xlsx
+++ b/biology/Botanique/Craterelle/Craterelle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Craterellus
 Craterellus (les craterelles) est un genre de champignons basidiomycètes de la famille des cantharellacées.Il comporte environ 70 espèces connues, tous champignons comestibles et répartis à travers le monde. Ils sont infundibuliformes ou cornucopiés. 
@@ -512,7 +524,9 @@
           <t>Définition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Craterellus englobe des champignons comestibles généralement semblables et étroitement liés au genre Cantharellus, certaines espèces ayant été récemment transférées du genre Cantharellus au genre Craterellus. Les deux genres manquent de véritables lamelles, mais ils ont souvent des plis, des rides, des marges et des crêtes semblables.
 L'espèce la plus commune, Craterellus cornucopioides est vendue dans le commerce et, contrairement à Cantharellus, peut être facilement conservée par séchage.
@@ -548,9 +562,11 @@
           <t>Modification de la taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Depuis 2000, les études phylogénétiques suggèrent de classer les espèces lutescens et tubaeformis chez les craterelles[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis 2000, les études phylogénétiques suggèrent de classer les espèces lutescens et tubaeformis chez les craterelles.
 </t>
         </is>
       </c>
@@ -579,18 +595,89 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Il y a 70 espèces dans ce genre[2], dont trois fort connues dans l'hémisphère nord, la trompette des morts et les chanterelles jaunes et grises. Certaines sont plus spécifiques de certaines régions américaines comme la région des Grands Lacs, les montagnes Rocheuses et la Caroline du Nord. La craterelle dorée se trouve en Asie et dans le Pacifique.
-Europe
-Craterellus cornucopioides (L. : Fr.) Pers. 1825 - Trompette des morts
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il y a 70 espèces dans ce genre, dont trois fort connues dans l'hémisphère nord, la trompette des morts et les chanterelles jaunes et grises. Certaines sont plus spécifiques de certaines régions américaines comme la région des Grands Lacs, les montagnes Rocheuses et la Caroline du Nord. La craterelle dorée se trouve en Asie et dans le Pacifique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Craterelle</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Craterelle</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Craterellus cornucopioides (L. : Fr.) Pers. 1825 - Trompette des morts
 Craterellus konradii Maire - Trompette jaune (Europe de l'Ouest)
 Craterellus melanoxeros (Desm.) Pérez de Grégorio 2000 - Chanterelle noircissante
 Craterellus tubaeformis (Fr.) Quél. 1888 - Chanterelle en tube
 Craterellus lutescens (Pers.) Fr. 1838 - Chanterelle jaune
-Craterellus verrucosus Massee 1906[3][réf. incomplète]
-Amérique du Nord
-Craterellus caeruleofuscus, Région des Grands-Lacs
+Craterellus verrucosus Massee 1906[réf. incomplète]</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Craterelle</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Craterelle</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Amérique du Nord</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Craterellus caeruleofuscus, Région des Grands-Lacs
 Craterellus carolinensis, Caroline du Nord
 Craterellus ignicolor Corner, 1966
 Craterellus fallax, montagnes Rocheuses, Massachusetts
@@ -601,19 +688,155 @@
 Craterellus xanthopus
 Craterellus calyculus (Berkeley &amp; Curtis) Burt, 1914 ou Pseudocraterellus sinuosus
 Craterellus foetidus Smith, 1968 proche de C. cornucopioides
-Craterellus dubius proche de C. cornucopioides Peck
-Côte pacifique Nord - Asie
-Craterellus aureus (Berk. &amp; M.A. Curtis) Bres. 1913[4][réf. incomplète])
+Craterellus dubius proche de C. cornucopioides Peck</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Craterelle</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Craterelle</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Côte pacifique Nord - Asie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Craterellus aureus (Berk. &amp; M.A. Curtis) Bres. 1913[réf. incomplète])
 Cantharellus diamesus (Ricker) Pat. 1928 (synonyme)
 Craterellus laetus Pat. &amp; Har. 1912 (synonyme) 	
 Thelephora diamesa Ricker 1906 (synonyme)
-Trombetta aurea (Berk. &amp; M.A. Curtis) Kuntze 1891 (synonyme)
-Amérique centrale
-Craterellus boyacensis Singer, Costa Rica et Colombie
-Guyane anglaise
-Craterellus excelsus T.W. Henkel &amp; Aime (2009)
-Autre
-Craterellus pekii R.H. Petersen[5][réf. incomplète]</t>
+Trombetta aurea (Berk. &amp; M.A. Curtis) Kuntze 1891 (synonyme)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Craterelle</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Craterelle</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Amérique centrale</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Craterellus boyacensis Singer, Costa Rica et Colombie</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Craterelle</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Craterelle</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Guyane anglaise</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Craterellus excelsus T.W. Henkel &amp; Aime (2009)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Craterelle</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Craterelle</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Autre</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Craterellus pekii R.H. Petersen[réf. incomplète]</t>
         </is>
       </c>
     </row>
